--- a/RobbieRobot Scrum-3.xlsx
+++ b/RobbieRobot Scrum-3.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christiandiaz/Desktop/Xcode projects/RobbieRobot/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christiandiaz/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="440" yWindow="460" windowWidth="15360" windowHeight="10480"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="1" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="152">
   <si>
     <t>Product Name:</t>
   </si>
@@ -509,7 +509,7 @@
     <t>BRP</t>
   </si>
   <si>
-    <t>IT</t>
+    <t>Robot parts</t>
   </si>
 </sst>
 </file>
@@ -883,11 +883,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="365514112"/>
-        <c:axId val="365251376"/>
+        <c:axId val="517680624"/>
+        <c:axId val="519533264"/>
       </c:lineChart>
       <c:valAx>
-        <c:axId val="365251376"/>
+        <c:axId val="519533264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.0"/>
@@ -943,12 +943,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="365514112"/>
+        <c:crossAx val="517680624"/>
         <c:crossesAt val="1.0"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="365514112"/>
+        <c:axId val="517680624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -993,7 +993,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="365251376"/>
+        <c:crossAx val="519533264"/>
         <c:crossesAt val="0.0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1050,6 +1050,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1078,16 +1079,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.0</c:v>
@@ -1115,11 +1116,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="530781360"/>
-        <c:axId val="530778240"/>
+        <c:axId val="516299728"/>
+        <c:axId val="516201728"/>
       </c:lineChart>
       <c:valAx>
-        <c:axId val="530778240"/>
+        <c:axId val="516201728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.0"/>
@@ -1151,6 +1152,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -1174,12 +1176,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="530781360"/>
+        <c:crossAx val="516299728"/>
         <c:crossesAt val="1.0"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="530781360"/>
+        <c:axId val="516299728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1201,6 +1203,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="none"/>
@@ -1223,7 +1226,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="530778240"/>
+        <c:crossAx val="516201728"/>
         <c:crossesAt val="0.0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1267,7 +1270,7 @@
         <xdr:cNvPr id="2" name="shape">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{005A6F39-C0E8-4934-8B9D-47E67861D4E5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{005A6F39-C0E8-4934-8B9D-47E67861D4E5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1298,7 +1301,7 @@
         <xdr:cNvPr id="2" name="shape">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9767C419-2EAC-4DEE-8B67-818DF5156FDD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9767C419-2EAC-4DEE-8B67-818DF5156FDD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1618,8 +1621,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMI67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G41" sqref="G41"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="O44" sqref="O44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -40100,7 +40103,7 @@
         <v>10</v>
       </c>
       <c r="C43" s="20" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="D43" s="19">
         <v>5</v>
@@ -40148,7 +40151,7 @@
         <v>11</v>
       </c>
       <c r="C44" s="20" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="D44" s="19">
         <v>6</v>
@@ -47146,12 +47149,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9.5" customWidth="1"/>
-    <col min="2" max="4" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="10.6640625" customWidth="1"/>
     <col min="5" max="5" width="11.33203125" customWidth="1"/>
     <col min="6" max="6" width="48" customWidth="1"/>
     <col min="7" max="7" width="10.6640625" customWidth="1"/>
@@ -47163,7 +47169,9 @@
       <c r="A1" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="B1" s="1"/>
+      <c r="B1" s="1">
+        <v>6</v>
+      </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
@@ -47177,7 +47185,9 @@
       <c r="A2" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="B2" s="49"/>
+      <c r="B2" s="49">
+        <v>42854</v>
+      </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -47189,7 +47199,9 @@
       <c r="A3" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="B3" s="49"/>
+      <c r="B3" s="49">
+        <v>42857</v>
+      </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
@@ -47224,8 +47236,7 @@
         <v>134</v>
       </c>
       <c r="B6" s="2">
-        <f>COUNTA($F$16:$F$145)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -47240,7 +47251,7 @@
       </c>
       <c r="B7" s="1">
         <f t="shared" ref="B7:B13" si="0">B6</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -47255,7 +47266,7 @@
       </c>
       <c r="B8" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -47270,7 +47281,7 @@
       </c>
       <c r="B9" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
@@ -47284,7 +47295,6 @@
         <v>138</v>
       </c>
       <c r="B10" s="1">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C10" s="2"/>
@@ -47375,15 +47385,31 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A16" s="34"/>
-      <c r="B16" s="34"/>
-      <c r="C16" s="34"/>
-      <c r="D16" s="34"/>
-      <c r="E16" s="34"/>
-      <c r="F16" s="34"/>
-      <c r="G16" s="34"/>
-      <c r="H16" s="34"/>
+    <row r="16" spans="1:8" ht="28" x14ac:dyDescent="0.15">
+      <c r="A16" s="34">
+        <v>1</v>
+      </c>
+      <c r="B16" s="34">
+        <v>6</v>
+      </c>
+      <c r="C16" s="34" t="s">
+        <v>151</v>
+      </c>
+      <c r="D16" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="E16" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="F16" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="G16" s="34" t="s">
+        <v>146</v>
+      </c>
+      <c r="H16" s="26" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17" s="34"/>

--- a/RobbieRobot Scrum-3.xlsx
+++ b/RobbieRobot Scrum-3.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christiandiaz/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christiandiaz/Desktop/Xcode projects/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
